--- a/diagrama-sql.xlsx
+++ b/diagrama-sql.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mauabr-my.sharepoint.com/personal/21_00210-0_maua_br/Documents/aula-java/projeto-semestral/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzo Sakamoto\Documents\repositorios_github\projeto-semestral-lp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D764DC26-624E-4241-B0E4-2D8D63EEAF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02983885-CE90-4503-9DF6-C521489FE373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C02D32C3-B9E7-4786-B3AB-3A24BCA62063}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>id (PK)</t>
   </si>
@@ -83,7 +83,10 @@
     <t>meal</t>
   </si>
   <si>
-    <t>-&gt;</t>
+    <t>→</t>
+  </si>
+  <si>
+    <t>isDone</t>
   </si>
 </sst>
 </file>
@@ -236,57 +239,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483DBF33-8259-4D1B-ABAA-638041CADCB4}">
-  <dimension ref="D4:L9"/>
+  <dimension ref="D4:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I5" sqref="I5:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,108 +636,115 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="15" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10" t="s">
+      <c r="J9" s="11"/>
+      <c r="K9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="5" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/diagrama-sql.xlsx
+++ b/diagrama-sql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzo Sakamoto\Documents\repositorios_github\projeto-semestral-lp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02983885-CE90-4503-9DF6-C521489FE373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB648AA8-1B61-4DE1-B969-DB8CC3542C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C02D32C3-B9E7-4786-B3AB-3A24BCA62063}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>id (PK)</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>isDone</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,6 +265,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -274,19 +292,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483DBF33-8259-4D1B-ABAA-638041CADCB4}">
   <dimension ref="D4:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:L10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,34 +634,34 @@
   <sheetData>
     <row r="4" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="I5" s="12" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="I5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="16"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="2" t="s">
         <v>4</v>
       </c>
@@ -658,10 +670,10 @@
       </c>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
@@ -671,11 +683,11 @@
       <c r="H7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="1" t="s">
+      <c r="J7" s="18"/>
+      <c r="K7" s="19" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -683,21 +695,21 @@
       </c>
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="1" t="s">
+      <c r="J8" s="18"/>
+      <c r="K8" s="19" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -705,32 +717,38 @@
       </c>
     </row>
     <row r="9" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="18"/>
+      <c r="K9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="I10" s="16" t="s">
+    <row r="10" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="15" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="16"/>
+      <c r="K10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/diagrama-sql.xlsx
+++ b/diagrama-sql.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzo Sakamoto\Documents\repositorios_github\projeto-semestral-lp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB648AA8-1B61-4DE1-B969-DB8CC3542C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B152E8D7-E531-4BC8-8AA9-D800C1752CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C02D32C3-B9E7-4786-B3AB-3A24BCA62063}"/>
+    <workbookView xWindow="1605" yWindow="4905" windowWidth="24165" windowHeight="11295" xr2:uid="{C02D32C3-B9E7-4786-B3AB-3A24BCA62063}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,6 +280,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -290,15 +293,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483DBF33-8259-4D1B-ABAA-638041CADCB4}">
   <dimension ref="D4:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,13 +639,13 @@
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="17"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
@@ -670,10 +664,10 @@
       </c>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
@@ -683,11 +677,11 @@
       <c r="H7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -695,21 +689,21 @@
       </c>
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19" t="s">
+      <c r="J8" s="15"/>
+      <c r="K8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -717,21 +711,21 @@
       </c>
     </row>
     <row r="9" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -739,10 +733,10 @@
       </c>
     </row>
     <row r="10" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="4" t="s">
         <v>17</v>
       </c>

--- a/diagrama-sql.xlsx
+++ b/diagrama-sql.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzo Sakamoto\Documents\repositorios_github\projeto-semestral-lp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzo Sakamoto\Documents\repositorios_github\imaua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B152E8D7-E531-4BC8-8AA9-D800C1752CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08C7A85-4CDC-482F-A07C-DC67EC10B76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="4905" windowWidth="24165" windowHeight="11295" xr2:uid="{C02D32C3-B9E7-4786-B3AB-3A24BCA62063}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C02D32C3-B9E7-4786-B3AB-3A24BCA62063}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>id (PK)</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>VARCHAR(18)</t>
   </si>
 </sst>
 </file>
@@ -242,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,6 +299,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483DBF33-8259-4D1B-ABAA-638041CADCB4}">
-  <dimension ref="D4:L10"/>
+  <dimension ref="D4:L11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,14 +690,14 @@
         <v>15</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19" t="s">
+        <v>4</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.25">
@@ -700,11 +712,11 @@
         <v>8</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>8</v>
@@ -722,41 +734,54 @@
         <v>9</v>
       </c>
       <c r="I9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="1" t="s">
+      <c r="J10" s="18"/>
+      <c r="K10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="16" t="s">
+    <row r="11" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="4" t="s">
+      <c r="J11" s="17"/>
+      <c r="K11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/diagrama-sql.xlsx
+++ b/diagrama-sql.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzo Sakamoto\Documents\repositorios_github\imaua\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzo/Documents/Development/imaua/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08C7A85-4CDC-482F-A07C-DC67EC10B76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130661CA-43DB-0D4E-908C-8B20BF3B8EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C02D32C3-B9E7-4786-B3AB-3A24BCA62063}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{C02D32C3-B9E7-4786-B3AB-3A24BCA62063}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>id (PK)</t>
   </si>
@@ -56,9 +56,6 @@
     <t>VARCHAR(100)</t>
   </si>
   <si>
-    <t>NUMERIC(5, 2)</t>
-  </si>
-  <si>
     <t>Client</t>
   </si>
   <si>
@@ -89,13 +86,13 @@
     <t>isDone</t>
   </si>
   <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>VARCHAR(18)</t>
+  </si>
+  <si>
+    <t>DECIMAL(5, 2)</t>
   </si>
 </sst>
 </file>
@@ -248,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,6 +268,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,24 +296,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -623,146 +614,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483DBF33-8259-4D1B-ABAA-638041CADCB4}">
   <dimension ref="D4:L11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="11" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="I5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
+    <row r="4" spans="4:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="4:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="I5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="14" t="s">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="14" t="s">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="14" t="s">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="I9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="14" t="s">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="I10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>8</v>
